--- a/tests/fixtures/verification/cases/stochastic/transcription_translation/transcription_translation-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/transcription_translation/transcription_translation-wc_lang.xlsx
@@ -2033,7 +2033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2212,7 +2212,6 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
